--- a/CONTROLE DE CAIXA 2024 - 2.xlsx
+++ b/CONTROLE DE CAIXA 2024 - 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CB SANTOS\Desktop\controle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rwick\Desktop\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D082B79-0BCA-4670-B698-0449A62748EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11BAE797-5678-46DB-8186-ACD2A27C6073}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="602" activeTab="3" xr2:uid="{FE6C2AA7-AD1E-4474-8D8C-82FE7A7F47D3}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="VALES" sheetId="4" r:id="rId7"/>
     <sheet name="MATRIZ" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7812" uniqueCount="114">
   <si>
     <t>EDIO</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>SETEMBRO</t>
+  </si>
+  <si>
+    <t>CDEBITO</t>
   </si>
 </sst>
 </file>
@@ -26160,7 +26163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98B007F-6A6A-49D2-A7F4-7B20AC3B58D3}">
   <dimension ref="A1:P538"/>
   <sheetViews>
-    <sheetView topLeftCell="A519" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D517" sqref="D517"/>
     </sheetView>
   </sheetViews>
@@ -43197,8 +43200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04E82EC-6B94-4058-A047-CF4B8AB2810B}">
   <dimension ref="A1:P538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44700,12 +44703,24 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" thickBot="1">
       <c r="A54" s="48"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="3">
+        <v>40</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="3"/>
@@ -44715,18 +44730,30 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3">
         <f>SUM(D54,G54,J54,M54)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16" ht="15.75" thickBot="1">
       <c r="A55" s="48"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3">
+        <v>40</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="3">
+        <v>40</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -44736,18 +44763,30 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3">
         <f t="shared" ref="O55:O65" si="3">SUM(D55,G55,J55,M55)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P55" s="37"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1">
       <c r="A56" s="48"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2">
+        <v>40</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="3">
+        <v>80</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -44757,7 +44796,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P56" s="37"/>
     </row>
@@ -44766,9 +44805,15 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="2">
+        <v>40</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -44778,7 +44823,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P57" s="37"/>
     </row>
@@ -44960,7 +45005,7 @@
       </c>
       <c r="D66" s="3">
         <f>SUM(D54:D65)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
@@ -44970,7 +45015,7 @@
       </c>
       <c r="G66" s="3">
         <f>SUM(G54:G65)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>8</v>
@@ -44997,7 +45042,7 @@
       </c>
       <c r="O66" s="3">
         <f>SUM(O54:O65)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="P66" s="37"/>
     </row>
@@ -45011,7 +45056,7 @@
       </c>
       <c r="D67" s="15">
         <f>D66/2</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>16</v>
@@ -45021,7 +45066,7 @@
       </c>
       <c r="G67" s="15">
         <f>G66/2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>16</v>
@@ -45048,7 +45093,7 @@
       </c>
       <c r="O67" s="15">
         <f>O66/2</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P67" s="37"/>
     </row>
@@ -45144,64 +45189,112 @@
     </row>
     <row r="71" spans="1:16" ht="15.75" thickBot="1">
       <c r="A71" s="48"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3">
+        <v>35</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="3"/>
+      <c r="H71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="3">
+        <v>35</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="3">
+        <v>80</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3">
         <f>SUM(D71,G71,J71,M71)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P71" s="37"/>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="48"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3">
+        <v>35</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="3"/>
+      <c r="H72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="2">
+        <v>40</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" s="3">
+        <v>40</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" s="3">
         <f t="shared" ref="O72:O82" si="4">SUM(D72,G72,J72,M72)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="P72" s="37"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" thickBot="1">
       <c r="A73" s="48"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2">
+        <v>70</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="2">
+        <v>40</v>
+      </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P73" s="37"/>
     </row>
@@ -45213,16 +45306,22 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="2">
+        <v>60</v>
+      </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P74" s="37"/>
     </row>
@@ -45234,16 +45333,22 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" s="2">
+        <v>80</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P75" s="37"/>
     </row>
@@ -45404,7 +45509,7 @@
       </c>
       <c r="D83" s="3">
         <f>SUM(D71:D82)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
@@ -45424,7 +45529,7 @@
       </c>
       <c r="J83" s="3">
         <f>SUM(J71:J82)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>8</v>
@@ -45434,14 +45539,14 @@
       </c>
       <c r="M83" s="3">
         <f>SUM(M71:M82)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3">
         <f>SUM(O71:O82)</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="P83" s="37"/>
     </row>
@@ -45455,7 +45560,7 @@
       </c>
       <c r="D84" s="15">
         <f>D83/2</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>16</v>
@@ -45475,7 +45580,7 @@
       </c>
       <c r="J84" s="15">
         <f>J83/2</f>
-        <v>0</v>
+        <v>127.5</v>
       </c>
       <c r="K84" s="14" t="s">
         <v>16</v>
@@ -45485,14 +45590,14 @@
       </c>
       <c r="M84" s="15">
         <f>M83/2</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N84" s="14" t="s">
         <v>16</v>
       </c>
       <c r="O84" s="15">
         <f>O83/2</f>
-        <v>0</v>
+        <v>257.5</v>
       </c>
       <c r="P84" s="37"/>
     </row>
@@ -45588,22 +45693,40 @@
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1">
       <c r="A88" s="48"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="3"/>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="3">
+        <v>40</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="3">
+        <v>100</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" s="3">
+        <v>40</v>
+      </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="3"/>
       <c r="N88" s="2"/>
       <c r="O88" s="3">
         <f>SUM(D88,G88,J88,M88)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P88" s="37"/>
     </row>
@@ -45612,9 +45735,15 @@
       <c r="B89" s="2"/>
       <c r="C89" s="25"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="3"/>
+      <c r="E89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
+        <v>80</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -45624,7 +45753,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="3">
         <f t="shared" ref="O89:O99" si="5">SUM(D89,G89,J89,M89)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P89" s="37"/>
     </row>
@@ -45633,9 +45762,15 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="3"/>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="3">
+        <v>40</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -45645,7 +45780,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P90" s="37"/>
     </row>
@@ -45654,9 +45789,15 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2">
+        <v>80</v>
+      </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -45666,7 +45807,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P91" s="37"/>
     </row>
@@ -45848,7 +45989,7 @@
       </c>
       <c r="D100" s="3">
         <f>SUM(D88:D99)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
@@ -45858,7 +45999,7 @@
       </c>
       <c r="G100" s="3">
         <f>SUM(G88:G99)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>8</v>
@@ -45868,7 +46009,7 @@
       </c>
       <c r="J100" s="3">
         <f>SUM(J88:J99)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>8</v>
@@ -45885,7 +46026,7 @@
       </c>
       <c r="O100" s="3">
         <f>SUM(O88:O99)</f>
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="P100" s="37"/>
     </row>
@@ -45899,7 +46040,7 @@
       </c>
       <c r="D101" s="15">
         <f>D100/2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>16</v>
@@ -45909,7 +46050,7 @@
       </c>
       <c r="G101" s="15">
         <f>G100/2</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>16</v>
@@ -45919,7 +46060,7 @@
       </c>
       <c r="J101" s="15">
         <f>J100/2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>16</v>
@@ -45936,7 +46077,7 @@
       </c>
       <c r="O101" s="15">
         <f>O100/2</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="P101" s="37"/>
     </row>
@@ -57111,7 +57252,7 @@
       </c>
       <c r="D530" s="38">
         <f>SUM(D15,D32,D49,D66,D83,D100,D117,D134,D151,D168,D185,D202,D219,D236,D253)</f>
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="E530" s="11" t="s">
         <v>8</v>
@@ -57121,7 +57262,7 @@
       </c>
       <c r="G530" s="38">
         <f>SUM(G15,G32,G49,G66,G83,G100,G117,G134,G151,G168,G185,G202,G219,G236,G253)</f>
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="H530" s="11" t="s">
         <v>8</v>
@@ -57131,7 +57272,7 @@
       </c>
       <c r="J530" s="38">
         <f>SUM(J15,J32,J49,J66,J83,J100,J117,J134,J151,J168,J185,J202,J219,J236,J253)</f>
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="K530" s="11" t="s">
         <v>8</v>
@@ -57141,14 +57282,14 @@
       </c>
       <c r="M530" s="38">
         <f>SUM(M15,M32,M49,M66,M83,M100,M117,M134,M151,M168,M185,M202,M219,M236,M253)</f>
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="N530" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O530" s="12">
         <f>SUM(D530,G530,J530,M530)</f>
-        <v>550</v>
+        <v>1765</v>
       </c>
       <c r="P530" s="37"/>
     </row>
@@ -57162,7 +57303,7 @@
       </c>
       <c r="D531" s="12">
         <f>D530/2</f>
-        <v>37.5</v>
+        <v>187.5</v>
       </c>
       <c r="E531" s="11" t="s">
         <v>16</v>
@@ -57172,7 +57313,7 @@
       </c>
       <c r="G531" s="12">
         <f>G530/2</f>
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="H531" s="11" t="s">
         <v>16</v>
@@ -57182,7 +57323,7 @@
       </c>
       <c r="J531" s="12">
         <f>J530/2</f>
-        <v>30</v>
+        <v>177.5</v>
       </c>
       <c r="K531" s="11" t="s">
         <v>16</v>
@@ -57192,14 +57333,14 @@
       </c>
       <c r="M531" s="12">
         <f>M530/2</f>
-        <v>117.5</v>
+        <v>177.5</v>
       </c>
       <c r="N531" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O531" s="12">
         <f>SUM(D531,G531,J531,M531,)</f>
-        <v>275</v>
+        <v>882.5</v>
       </c>
       <c r="P531" s="37"/>
     </row>
@@ -57351,7 +57492,7 @@
       </c>
       <c r="D536" s="38">
         <f>SUM(D530,D533)</f>
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="E536" s="11" t="s">
         <v>8</v>
@@ -57361,7 +57502,7 @@
       </c>
       <c r="G536" s="38">
         <f>SUM(G530,G533)</f>
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="H536" s="11" t="s">
         <v>8</v>
@@ -57371,7 +57512,7 @@
       </c>
       <c r="J536" s="38">
         <f>SUM(J530,J533)</f>
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="K536" s="11" t="s">
         <v>8</v>
@@ -57381,14 +57522,14 @@
       </c>
       <c r="M536" s="38">
         <f>SUM(M530,M533)</f>
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="N536" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O536" s="12">
         <f>SUM(O530,O533)</f>
-        <v>550</v>
+        <v>1765</v>
       </c>
       <c r="P536" s="37"/>
     </row>
@@ -57402,7 +57543,7 @@
       </c>
       <c r="D537" s="12">
         <f>D536/2</f>
-        <v>37.5</v>
+        <v>187.5</v>
       </c>
       <c r="E537" s="11" t="s">
         <v>16</v>
@@ -57412,7 +57553,7 @@
       </c>
       <c r="G537" s="12">
         <f>G536/2</f>
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="H537" s="11" t="s">
         <v>16</v>
@@ -57422,7 +57563,7 @@
       </c>
       <c r="J537" s="12">
         <f>J536/2</f>
-        <v>30</v>
+        <v>177.5</v>
       </c>
       <c r="K537" s="11" t="s">
         <v>16</v>
@@ -57432,14 +57573,14 @@
       </c>
       <c r="M537" s="12">
         <f>M536/2</f>
-        <v>117.5</v>
+        <v>177.5</v>
       </c>
       <c r="N537" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O537" s="12">
         <f>SUM(O531,O534)</f>
-        <v>275</v>
+        <v>882.5</v>
       </c>
       <c r="P537" s="37"/>
     </row>

--- a/CONTROLE DE CAIXA 2024 - 2.xlsx
+++ b/CONTROLE DE CAIXA 2024 - 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rwick\Desktop\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11BAE797-5678-46DB-8186-ACD2A27C6073}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366FBC7-ECED-4B1F-B2C6-BAA47829390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="602" activeTab="3" xr2:uid="{FE6C2AA7-AD1E-4474-8D8C-82FE7A7F47D3}"/>
   </bookViews>
@@ -22,17 +22,28 @@
     <sheet name="VALES" sheetId="4" r:id="rId7"/>
     <sheet name="MATRIZ" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7812" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="118">
   <si>
     <t>EDIO</t>
   </si>
@@ -374,6 +385,18 @@
   </si>
   <si>
     <t>CDEBITO</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>3 CORTES</t>
+  </si>
+  <si>
+    <t>PROGRESSIVA</t>
+  </si>
+  <si>
+    <t>PÉ</t>
   </si>
 </sst>
 </file>
@@ -43200,8 +43223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04E82EC-6B94-4058-A047-CF4B8AB2810B}">
   <dimension ref="A1:P538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G110" sqref="F110:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44286,9 +44309,15 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3">
+        <v>40</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -44304,7 +44333,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P39" s="37"/>
     </row>
@@ -44529,7 +44558,7 @@
       </c>
       <c r="G49" s="3">
         <f>SUM(G37:G48)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>8</v>
@@ -44556,7 +44585,7 @@
       </c>
       <c r="O49" s="3">
         <f>SUM(O37:O48)</f>
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="P49" s="37"/>
     </row>
@@ -44580,7 +44609,7 @@
       </c>
       <c r="G50" s="15">
         <f>G49/2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>16</v>
@@ -44607,7 +44636,7 @@
       </c>
       <c r="O50" s="15">
         <f>O49/2</f>
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="P50" s="37"/>
     </row>
@@ -45720,21 +45749,33 @@
       <c r="J88" s="3">
         <v>40</v>
       </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="3"/>
+      <c r="K88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M88" s="3">
+        <v>160</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" s="3">
         <f>SUM(D88,G88,J88,M88)</f>
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="P88" s="37"/>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1">
       <c r="A89" s="48"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2">
+        <v>40</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>21</v>
       </c>
@@ -45744,24 +45785,42 @@
       <c r="G89" s="3">
         <v>80</v>
       </c>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="3"/>
+      <c r="H89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" s="2">
+        <v>40</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="3">
+        <v>40</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" s="3">
         <f t="shared" ref="O89:O99" si="5">SUM(D89,G89,J89,M89)</f>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="P89" s="37"/>
     </row>
     <row r="90" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="48"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2">
+        <v>35</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
@@ -45771,24 +45830,42 @@
       <c r="G90" s="3">
         <v>40</v>
       </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" s="2">
+        <v>75</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" s="2">
+        <v>40</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" s="3">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="P90" s="37"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" thickBot="1">
       <c r="A91" s="48"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2">
+        <v>40</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>21</v>
       </c>
@@ -45798,58 +45875,100 @@
       <c r="G91" s="2">
         <v>80</v>
       </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="2">
+        <v>60</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="3">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="P91" s="37"/>
     </row>
     <row r="92" spans="1:16" ht="15.75" thickBot="1">
       <c r="A92" s="48"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2">
+        <v>40</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="2">
+        <v>40</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P92" s="37"/>
     </row>
     <row r="93" spans="1:16" ht="15.75" thickBot="1">
       <c r="A93" s="48"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="2">
+        <v>35</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93" s="2">
+        <v>40</v>
+      </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="P93" s="37"/>
     </row>
@@ -45858,9 +45977,15 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="2">
+        <v>80</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -45870,7 +45995,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P94" s="37"/>
     </row>
@@ -45879,9 +46004,15 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2">
+        <v>40</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -45891,7 +46022,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P95" s="37"/>
     </row>
@@ -45989,7 +46120,7 @@
       </c>
       <c r="D100" s="3">
         <f>SUM(D88:D99)</f>
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
@@ -45999,7 +46130,7 @@
       </c>
       <c r="G100" s="3">
         <f>SUM(G88:G99)</f>
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>8</v>
@@ -46009,7 +46140,7 @@
       </c>
       <c r="J100" s="3">
         <f>SUM(J88:J99)</f>
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>8</v>
@@ -46019,14 +46150,14 @@
       </c>
       <c r="M100" s="3">
         <f>SUM(M88:M99)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O100" s="3">
         <f>SUM(O88:O99)</f>
-        <v>380</v>
+        <v>1305</v>
       </c>
       <c r="P100" s="37"/>
     </row>
@@ -46040,7 +46171,7 @@
       </c>
       <c r="D101" s="15">
         <f>D100/2</f>
-        <v>20</v>
+        <v>137.5</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>16</v>
@@ -46050,7 +46181,7 @@
       </c>
       <c r="G101" s="15">
         <f>G100/2</f>
-        <v>150</v>
+        <v>247.5</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>16</v>
@@ -46060,7 +46191,7 @@
       </c>
       <c r="J101" s="15">
         <f>J100/2</f>
-        <v>20</v>
+        <v>147.5</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>16</v>
@@ -46070,14 +46201,14 @@
       </c>
       <c r="M101" s="15">
         <f>M100/2</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N101" s="14" t="s">
         <v>16</v>
       </c>
       <c r="O101" s="15">
         <f>O100/2</f>
-        <v>190</v>
+        <v>652.5</v>
       </c>
       <c r="P101" s="37"/>
     </row>
@@ -46173,64 +46304,136 @@
     </row>
     <row r="105" spans="1:16" ht="15.75" thickBot="1">
       <c r="A105" s="48"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="3"/>
+      <c r="B105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3">
+        <v>90</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="3">
+        <v>35</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105" s="3">
+        <v>40</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105" s="3">
+        <v>90</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" s="3">
         <f>SUM(D105,G105,J105,M105)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="P105" s="37"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" thickBot="1">
       <c r="A106" s="48"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="3"/>
+      <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3">
+        <v>20</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="3">
+        <v>40</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" s="2">
+        <v>40</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106" s="3">
+        <v>40</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" s="3">
         <f t="shared" ref="O106:O116" si="6">SUM(D106,G106,J106,M106)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P106" s="37"/>
     </row>
     <row r="107" spans="1:16" ht="15.75" thickBot="1">
       <c r="A107" s="48"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2">
+        <v>40</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="3">
+        <v>40</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" s="2">
+        <v>40</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M107" s="2">
+        <v>40</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P107" s="37"/>
     </row>
@@ -46239,19 +46442,37 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="2">
+        <v>80</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M108" s="2">
+        <v>40</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P108" s="37"/>
     </row>
@@ -46260,19 +46481,37 @@
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" s="2">
+        <v>40</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M109" s="2">
+        <v>120</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P109" s="37"/>
     </row>
@@ -46284,16 +46523,28 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" s="2">
+        <v>40</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110" s="2">
+        <v>40</v>
+      </c>
       <c r="N110" s="2"/>
       <c r="O110" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P110" s="37"/>
     </row>
@@ -46308,13 +46559,19 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="K111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M111" s="2">
+        <v>40</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P111" s="37"/>
     </row>
@@ -46433,7 +46690,7 @@
       </c>
       <c r="D117" s="3">
         <f>SUM(D105:D116)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>8</v>
@@ -46443,7 +46700,7 @@
       </c>
       <c r="G117" s="3">
         <f>SUM(G105:G116)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>8</v>
@@ -46453,7 +46710,7 @@
       </c>
       <c r="J117" s="3">
         <f>SUM(J105:J116)</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>8</v>
@@ -46463,14 +46720,14 @@
       </c>
       <c r="M117" s="3">
         <f>SUM(M105:M116)</f>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="N117" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O117" s="3">
         <f>SUM(O105:O116)</f>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="P117" s="37"/>
     </row>
@@ -46484,7 +46741,7 @@
       </c>
       <c r="D118" s="15">
         <f>D117/2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>16</v>
@@ -46494,7 +46751,7 @@
       </c>
       <c r="G118" s="15">
         <f>G117/2</f>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="H118" s="14" t="s">
         <v>16</v>
@@ -46504,7 +46761,7 @@
       </c>
       <c r="J118" s="15">
         <f>J117/2</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K118" s="14" t="s">
         <v>16</v>
@@ -46514,14 +46771,14 @@
       </c>
       <c r="M118" s="15">
         <f>M117/2</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="N118" s="14" t="s">
         <v>16</v>
       </c>
       <c r="O118" s="15">
         <f>O117/2</f>
-        <v>0</v>
+        <v>517.5</v>
       </c>
       <c r="P118" s="37"/>
     </row>
@@ -57252,7 +57509,7 @@
       </c>
       <c r="D530" s="38">
         <f>SUM(D15,D32,D49,D66,D83,D100,D117,D134,D151,D168,D185,D202,D219,D236,D253)</f>
-        <v>375</v>
+        <v>760</v>
       </c>
       <c r="E530" s="11" t="s">
         <v>8</v>
@@ -57262,7 +57519,7 @@
       </c>
       <c r="G530" s="38">
         <f>SUM(G15,G32,G49,G66,G83,G100,G117,G134,G151,G168,G185,G202,G219,G236,G253)</f>
-        <v>680</v>
+        <v>1110</v>
       </c>
       <c r="H530" s="11" t="s">
         <v>8</v>
@@ -57272,7 +57529,7 @@
       </c>
       <c r="J530" s="38">
         <f>SUM(J15,J32,J49,J66,J83,J100,J117,J134,J151,J168,J185,J202,J219,J236,J253)</f>
-        <v>355</v>
+        <v>890</v>
       </c>
       <c r="K530" s="11" t="s">
         <v>8</v>
@@ -57282,14 +57539,14 @@
       </c>
       <c r="M530" s="38">
         <f>SUM(M15,M32,M49,M66,M83,M100,M117,M134,M151,M168,M185,M202,M219,M236,M253)</f>
-        <v>355</v>
+        <v>1005</v>
       </c>
       <c r="N530" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O530" s="12">
         <f>SUM(D530,G530,J530,M530)</f>
-        <v>1765</v>
+        <v>3765</v>
       </c>
       <c r="P530" s="37"/>
     </row>
@@ -57303,7 +57560,7 @@
       </c>
       <c r="D531" s="12">
         <f>D530/2</f>
-        <v>187.5</v>
+        <v>380</v>
       </c>
       <c r="E531" s="11" t="s">
         <v>16</v>
@@ -57313,7 +57570,7 @@
       </c>
       <c r="G531" s="12">
         <f>G530/2</f>
-        <v>340</v>
+        <v>555</v>
       </c>
       <c r="H531" s="11" t="s">
         <v>16</v>
@@ -57323,7 +57580,7 @@
       </c>
       <c r="J531" s="12">
         <f>J530/2</f>
-        <v>177.5</v>
+        <v>445</v>
       </c>
       <c r="K531" s="11" t="s">
         <v>16</v>
@@ -57333,14 +57590,14 @@
       </c>
       <c r="M531" s="12">
         <f>M530/2</f>
-        <v>177.5</v>
+        <v>502.5</v>
       </c>
       <c r="N531" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O531" s="12">
         <f>SUM(D531,G531,J531,M531,)</f>
-        <v>882.5</v>
+        <v>1882.5</v>
       </c>
       <c r="P531" s="37"/>
     </row>
@@ -57492,7 +57749,7 @@
       </c>
       <c r="D536" s="38">
         <f>SUM(D530,D533)</f>
-        <v>375</v>
+        <v>760</v>
       </c>
       <c r="E536" s="11" t="s">
         <v>8</v>
@@ -57502,7 +57759,7 @@
       </c>
       <c r="G536" s="38">
         <f>SUM(G530,G533)</f>
-        <v>680</v>
+        <v>1110</v>
       </c>
       <c r="H536" s="11" t="s">
         <v>8</v>
@@ -57512,7 +57769,7 @@
       </c>
       <c r="J536" s="38">
         <f>SUM(J530,J533)</f>
-        <v>355</v>
+        <v>890</v>
       </c>
       <c r="K536" s="11" t="s">
         <v>8</v>
@@ -57522,14 +57779,14 @@
       </c>
       <c r="M536" s="38">
         <f>SUM(M530,M533)</f>
-        <v>355</v>
+        <v>1005</v>
       </c>
       <c r="N536" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O536" s="12">
         <f>SUM(O530,O533)</f>
-        <v>1765</v>
+        <v>3765</v>
       </c>
       <c r="P536" s="37"/>
     </row>
@@ -57543,7 +57800,7 @@
       </c>
       <c r="D537" s="12">
         <f>D536/2</f>
-        <v>187.5</v>
+        <v>380</v>
       </c>
       <c r="E537" s="11" t="s">
         <v>16</v>
@@ -57553,7 +57810,7 @@
       </c>
       <c r="G537" s="12">
         <f>G536/2</f>
-        <v>340</v>
+        <v>555</v>
       </c>
       <c r="H537" s="11" t="s">
         <v>16</v>
@@ -57563,7 +57820,7 @@
       </c>
       <c r="J537" s="12">
         <f>J536/2</f>
-        <v>177.5</v>
+        <v>445</v>
       </c>
       <c r="K537" s="11" t="s">
         <v>16</v>
@@ -57573,14 +57830,14 @@
       </c>
       <c r="M537" s="12">
         <f>M536/2</f>
-        <v>177.5</v>
+        <v>502.5</v>
       </c>
       <c r="N537" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O537" s="12">
         <f>SUM(O531,O534)</f>
-        <v>882.5</v>
+        <v>1882.5</v>
       </c>
       <c r="P537" s="37"/>
     </row>
@@ -57872,7 +58129,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58441,8 +58698,15 @@
     <row r="28" spans="1:14">
       <c r="A28" s="26"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="26"/>
-      <c r="F28" s="31"/>
+      <c r="D28" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31">
+        <v>50</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="I28" s="31"/>
       <c r="J28" s="26"/>
@@ -58523,7 +58787,7 @@
       <c r="E35" s="88"/>
       <c r="F35" s="32">
         <f>SUM(F28:F34)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G35" s="87" t="s">
         <v>8</v>
@@ -58546,7 +58810,7 @@
       </c>
       <c r="N35" s="32">
         <f>SUM(C35,F35,I35,L35)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1"/>

--- a/CONTROLE DE CAIXA 2024 - 2.xlsx
+++ b/CONTROLE DE CAIXA 2024 - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rwick\Desktop\controle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD718D84-2484-400F-A7CC-9AAAB33D2FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB6B0DF-BC3C-494D-B2F4-67BA1AF21097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="602" activeTab="3" xr2:uid="{FE6C2AA7-AD1E-4474-8D8C-82FE7A7F47D3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8211" uniqueCount="126">
   <si>
     <t>EDIO</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t xml:space="preserve">SOMBRANCELHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCA </t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1281,6 +1284,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -43233,8 +43237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04E82EC-6B94-4058-A047-CF4B8AB2810B}">
   <dimension ref="A1:P541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M271" sqref="M271"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M301" sqref="M301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51741,12 +51745,24 @@
     </row>
     <row r="278" spans="1:16" ht="15.75" thickBot="1">
       <c r="A278" s="63"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="3"/>
+      <c r="B278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="3">
+        <v>40</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" s="3">
+        <v>40</v>
+      </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="3"/>
@@ -51756,18 +51772,30 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3">
         <f>SUM(D278,G278,J278,M278)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P278" s="37"/>
     </row>
     <row r="279" spans="1:16" ht="15.75" thickBot="1">
       <c r="A279" s="63"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="3"/>
+      <c r="B279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="3">
+        <v>40</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="3">
+        <v>40</v>
+      </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
@@ -51777,18 +51805,30 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3">
         <f t="shared" ref="O279:O289" si="16">SUM(D279,G279,J279,M279)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P279" s="37"/>
     </row>
     <row r="280" spans="1:16" ht="15.75" thickBot="1">
       <c r="A280" s="63"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="3"/>
+      <c r="B280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="2">
+        <v>40</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" s="3">
+        <v>40</v>
+      </c>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
@@ -51798,18 +51838,30 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P280" s="37"/>
     </row>
     <row r="281" spans="1:16" ht="15.75" thickBot="1">
       <c r="A281" s="63"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
+      <c r="B281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="2">
+        <v>35</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2">
+        <v>40</v>
+      </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
@@ -51819,7 +51871,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P281" s="37"/>
     </row>
@@ -51828,9 +51880,15 @@
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
+      <c r="E282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2">
+        <v>40</v>
+      </c>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
@@ -51840,7 +51898,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P282" s="37"/>
     </row>
@@ -51849,9 +51907,15 @@
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
+      <c r="E283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G283" s="2">
+        <v>40</v>
+      </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
@@ -51861,7 +51925,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P283" s="37"/>
     </row>
@@ -52001,7 +52065,7 @@
       </c>
       <c r="D290" s="3">
         <f>SUM(D278:D289)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>8</v>
@@ -52011,7 +52075,7 @@
       </c>
       <c r="G290" s="3">
         <f>SUM(G278:G289)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>8</v>
@@ -52038,7 +52102,7 @@
       </c>
       <c r="O290" s="3">
         <f>SUM(O278:O289)</f>
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="P290" s="37"/>
     </row>
@@ -52052,7 +52116,7 @@
       </c>
       <c r="D291" s="15">
         <f>D290/2</f>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="E291" s="14" t="s">
         <v>16</v>
@@ -52062,7 +52126,7 @@
       </c>
       <c r="G291" s="15">
         <f>G290/2</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H291" s="14" t="s">
         <v>16</v>
@@ -52089,7 +52153,7 @@
       </c>
       <c r="O291" s="15">
         <f>O290/2</f>
-        <v>0</v>
+        <v>197.5</v>
       </c>
       <c r="P291" s="37"/>
     </row>
@@ -52185,22 +52249,46 @@
     </row>
     <row r="295" spans="1:16" ht="15.75" thickBot="1">
       <c r="A295" s="63"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="3"/>
+      <c r="B295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="3">
+        <v>40</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G295" s="3">
+        <v>80</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J295" s="3">
+        <v>65</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M295" s="3">
+        <v>60</v>
+      </c>
       <c r="N295" s="2"/>
       <c r="O295" s="3">
         <f>SUM(D295,G295,J295,M295)</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="P295" s="37"/>
     </row>
@@ -52209,19 +52297,31 @@
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="3"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="3"/>
+      <c r="E296" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="3">
+        <v>40</v>
+      </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="3"/>
+      <c r="K296" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M296" s="3">
+        <v>40</v>
+      </c>
       <c r="N296" s="2"/>
       <c r="O296" s="3">
         <f t="shared" ref="O296:O306" si="17">SUM(D296,G296,J296,M296)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P296" s="37"/>
     </row>
@@ -52230,19 +52330,31 @@
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="3"/>
+      <c r="E297" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G297" s="3">
+        <v>35</v>
+      </c>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2"/>
+      <c r="K297" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M297" s="2">
+        <v>40</v>
+      </c>
       <c r="N297" s="2"/>
       <c r="O297" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P297" s="37"/>
     </row>
@@ -52251,19 +52363,31 @@
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
+      <c r="E298" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="2">
+        <v>40</v>
+      </c>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
+      <c r="K298" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M298" s="2">
+        <v>80</v>
+      </c>
       <c r="N298" s="2"/>
       <c r="O298" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P298" s="37"/>
     </row>
@@ -52278,13 +52402,19 @@
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="2"/>
+      <c r="K299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L299" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M299" s="2">
+        <v>40</v>
+      </c>
       <c r="N299" s="2"/>
       <c r="O299" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P299" s="37"/>
     </row>
@@ -52299,13 +52429,19 @@
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
-      <c r="K300" s="2"/>
-      <c r="L300" s="2"/>
-      <c r="M300" s="2"/>
+      <c r="K300" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M300" s="2">
+        <v>70</v>
+      </c>
       <c r="N300" s="2"/>
       <c r="O300" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P300" s="37"/>
     </row>
@@ -52445,7 +52581,7 @@
       </c>
       <c r="D307" s="3">
         <f>SUM(D295:D306)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>8</v>
@@ -52455,7 +52591,7 @@
       </c>
       <c r="G307" s="3">
         <f>SUM(G295:G306)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H307" s="4" t="s">
         <v>8</v>
@@ -52465,7 +52601,7 @@
       </c>
       <c r="J307" s="3">
         <f>SUM(J295:J306)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K307" s="4" t="s">
         <v>8</v>
@@ -52475,14 +52611,14 @@
       </c>
       <c r="M307" s="3">
         <f>SUM(M295:M306)</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="N307" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O307" s="3">
         <f>SUM(O295:O306)</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="P307" s="37"/>
     </row>
@@ -52496,7 +52632,7 @@
       </c>
       <c r="D308" s="15">
         <f>D307/2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E308" s="14" t="s">
         <v>16</v>
@@ -52506,7 +52642,7 @@
       </c>
       <c r="G308" s="15">
         <f>G307/2</f>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="H308" s="14" t="s">
         <v>16</v>
@@ -52516,7 +52652,7 @@
       </c>
       <c r="J308" s="15">
         <f>J307/2</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="K308" s="14" t="s">
         <v>16</v>
@@ -52526,14 +52662,14 @@
       </c>
       <c r="M308" s="15">
         <f>M307/2</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N308" s="14" t="s">
         <v>16</v>
       </c>
       <c r="O308" s="15">
         <f>O307/2</f>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="P308" s="37"/>
     </row>
@@ -58501,7 +58637,7 @@
       </c>
       <c r="D536" s="38">
         <f>SUM(D273,D290,D307,D324,D341,D358,D375,D392,D409,D426,D443,D460,D477,D494,D511,D528)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="E536" s="11" t="s">
         <v>8</v>
@@ -58511,7 +58647,7 @@
       </c>
       <c r="G536" s="38">
         <f>SUM(G273,G290,G307,G324,G341,G358,G375,G392,G409,G426,G443,G460,G477,G494,G511,G528)</f>
-        <v>280</v>
+        <v>715</v>
       </c>
       <c r="H536" s="11" t="s">
         <v>8</v>
@@ -58521,7 +58657,7 @@
       </c>
       <c r="J536" s="38">
         <f>SUM(J273,J290,J307,J324,J341,J358,J375,J392,J409,J426,J443,J460,J477,J494,J511,J528)</f>
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="K536" s="11" t="s">
         <v>8</v>
@@ -58531,14 +58667,14 @@
       </c>
       <c r="M536" s="38">
         <f>SUM(M273,M290,M307,M324,M341,M358,M375,M392,M409,M426,M443,M460,M477,M494,M511,M528)</f>
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="N536" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O536" s="12">
         <f>SUM(D536,G536,J536,M536)</f>
-        <v>880</v>
+        <v>1905</v>
       </c>
       <c r="P536" s="37"/>
     </row>
@@ -58552,7 +58688,7 @@
       </c>
       <c r="D537" s="12">
         <f>D536/2</f>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="E537" s="11" t="s">
         <v>16</v>
@@ -58562,7 +58698,7 @@
       </c>
       <c r="G537" s="12">
         <f>G536/2</f>
-        <v>140</v>
+        <v>357.5</v>
       </c>
       <c r="H537" s="11" t="s">
         <v>16</v>
@@ -58572,7 +58708,7 @@
       </c>
       <c r="J537" s="12">
         <f>J536/2</f>
-        <v>100</v>
+        <v>132.5</v>
       </c>
       <c r="K537" s="11" t="s">
         <v>16</v>
@@ -58582,14 +58718,14 @@
       </c>
       <c r="M537" s="12">
         <f>M536/2</f>
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="N537" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O537" s="12">
         <f>SUM(D537,G537,J537,M537,)</f>
-        <v>440</v>
+        <v>952.5</v>
       </c>
       <c r="P537" s="37"/>
     </row>
@@ -58621,7 +58757,7 @@
       </c>
       <c r="D539" s="38">
         <f>SUM(D533,D536)</f>
-        <v>1940</v>
+        <v>2135</v>
       </c>
       <c r="E539" s="11" t="s">
         <v>8</v>
@@ -58631,7 +58767,7 @@
       </c>
       <c r="G539" s="38">
         <f>SUM(G533,G536)</f>
-        <v>2490</v>
+        <v>2925</v>
       </c>
       <c r="H539" s="11" t="s">
         <v>8</v>
@@ -58641,7 +58777,7 @@
       </c>
       <c r="J539" s="38">
         <f>SUM(J533,J536)</f>
-        <v>2125</v>
+        <v>2190</v>
       </c>
       <c r="K539" s="11" t="s">
         <v>8</v>
@@ -58651,14 +58787,14 @@
       </c>
       <c r="M539" s="38">
         <f>SUM(M533,M536)</f>
-        <v>3135</v>
+        <v>3465</v>
       </c>
       <c r="N539" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O539" s="12">
         <f>SUM(O533,O536)</f>
-        <v>9690</v>
+        <v>10715</v>
       </c>
       <c r="P539" s="37"/>
     </row>
@@ -58672,7 +58808,7 @@
       </c>
       <c r="D540" s="12">
         <f>D539/2</f>
-        <v>970</v>
+        <v>1067.5</v>
       </c>
       <c r="E540" s="11" t="s">
         <v>16</v>
@@ -58682,7 +58818,7 @@
       </c>
       <c r="G540" s="12">
         <f>G539/2</f>
-        <v>1245</v>
+        <v>1462.5</v>
       </c>
       <c r="H540" s="11" t="s">
         <v>16</v>
@@ -58692,7 +58828,7 @@
       </c>
       <c r="J540" s="12">
         <f>J539/2</f>
-        <v>1062.5</v>
+        <v>1095</v>
       </c>
       <c r="K540" s="11" t="s">
         <v>16</v>
@@ -58702,14 +58838,14 @@
       </c>
       <c r="M540" s="12">
         <f>M539/2</f>
-        <v>1567.5</v>
+        <v>1732.5</v>
       </c>
       <c r="N540" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O540" s="12">
         <f>SUM(O534,O537)</f>
-        <v>4845</v>
+        <v>5357.5</v>
       </c>
       <c r="P540" s="37"/>
     </row>
@@ -59000,8 +59136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04BBB7F-6613-48C4-A6FE-66F6BAE6A51A}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59586,8 +59722,15 @@
       <c r="F28" s="31">
         <v>50</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="I28" s="31"/>
+      <c r="G28" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="95">
+        <v>1</v>
+      </c>
+      <c r="I28" s="31">
+        <v>5</v>
+      </c>
       <c r="J28" s="26" t="s">
         <v>98</v>
       </c>
@@ -59603,8 +59746,15 @@
       <c r="C29" s="31"/>
       <c r="D29" s="26"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="26"/>
-      <c r="I29" s="31"/>
+      <c r="G29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="31">
+        <v>9</v>
+      </c>
       <c r="J29" s="26" t="s">
         <v>106</v>
       </c>
@@ -59622,8 +59772,15 @@
       <c r="F30" s="31"/>
       <c r="G30" s="26"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="26"/>
-      <c r="L30" s="31"/>
+      <c r="J30" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="31">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="26"/>
@@ -59632,8 +59789,15 @@
       <c r="F31" s="31"/>
       <c r="G31" s="26"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="26"/>
-      <c r="L31" s="31"/>
+      <c r="J31" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="31">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="26"/>
@@ -59688,7 +59852,7 @@
       <c r="H35" s="90"/>
       <c r="I35" s="32">
         <f>SUM(I28:I34)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J35" s="89" t="s">
         <v>8</v>
@@ -59696,14 +59860,14 @@
       <c r="K35" s="90"/>
       <c r="L35" s="32">
         <f>SUM(L28:L34)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M35" s="36" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="32">
         <f>SUM(C35,F35,I35,L35)</f>
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1"/>
